--- a/output/geopolitical_indices.xlsx
+++ b/output/geopolitical_indices.xlsx
@@ -570,13 +570,13 @@
         <v>1.73057437402078</v>
       </c>
       <c r="E2" t="n">
-        <v>39.2619081586785</v>
+        <v>33.2462905522572</v>
       </c>
       <c r="F2" t="n">
-        <v>68.2765928732234</v>
+        <v>56.445940757188</v>
       </c>
       <c r="G2" t="n">
-        <v>27.9346108658469</v>
+        <v>22.7531031217803</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -611,13 +611,13 @@
         <v>11.5755892374016</v>
       </c>
       <c r="E3" t="n">
-        <v>30.9300798451006</v>
+        <v>27.4694464664232</v>
       </c>
       <c r="F3" t="n">
-        <v>33.5554569615163</v>
+        <v>30.7630512636017</v>
       </c>
       <c r="G3" t="n">
-        <v>34.3396122481106</v>
+        <v>38.6482522448668</v>
       </c>
       <c r="H3" t="n">
         <v>17.3909427626355</v>
@@ -641,7 +641,7 @@
         <v>7.34786822791438</v>
       </c>
       <c r="O3" t="n">
-        <v>31.7880138451098</v>
+        <v>29.9910745759713</v>
       </c>
     </row>
     <row r="4">
@@ -658,13 +658,13 @@
         <v>8.73744107232071</v>
       </c>
       <c r="E4" t="n">
-        <v>25.1720535315503</v>
+        <v>29.2574867092336</v>
       </c>
       <c r="F4" t="n">
-        <v>51.031403601153</v>
+        <v>73.364383508654</v>
       </c>
       <c r="G4" t="n">
-        <v>31.2148114133411</v>
+        <v>72.2639441377482</v>
       </c>
       <c r="H4" t="n">
         <v>9.60178377748706</v>
@@ -688,7 +688,7 @@
         <v>12.6245885927173</v>
       </c>
       <c r="O4" t="n">
-        <v>28.1203392452709</v>
+        <v>26.7979782542211</v>
       </c>
     </row>
     <row r="5">
@@ -705,13 +705,13 @@
         <v>17.5607354684294</v>
       </c>
       <c r="E5" t="n">
-        <v>28.2588843591619</v>
+        <v>23.6670015870064</v>
       </c>
       <c r="F5" t="n">
-        <v>52.4773547421718</v>
+        <v>53.1887906616251</v>
       </c>
       <c r="G5" t="n">
-        <v>46.3350646471959</v>
+        <v>34.619179337869</v>
       </c>
       <c r="H5" t="n">
         <v>20.3578398890198</v>
@@ -735,7 +735,7 @@
         <v>17.1554798850338</v>
       </c>
       <c r="O5" t="n">
-        <v>29.640818515293</v>
+        <v>23.4056041903984</v>
       </c>
     </row>
     <row r="6">
@@ -752,13 +752,13 @@
         <v>25.1682631143513</v>
       </c>
       <c r="E6" t="n">
-        <v>35.4915176551669</v>
+        <v>17.2923242749551</v>
       </c>
       <c r="F6" t="n">
-        <v>52.7890354025614</v>
+        <v>39.0342006692877</v>
       </c>
       <c r="G6" t="n">
-        <v>5.3488997474869</v>
+        <v>4.46786987552401</v>
       </c>
       <c r="H6" t="n">
         <v>2.08854369775713</v>
@@ -782,7 +782,7 @@
         <v>17.784854282599</v>
       </c>
       <c r="O6" t="n">
-        <v>21.2501340047763</v>
+        <v>13.6531086206538</v>
       </c>
     </row>
     <row r="7">
@@ -802,10 +802,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>59.3604925670532</v>
+        <v>63.8355554947098</v>
       </c>
       <c r="G7" t="n">
-        <v>14.481319689957</v>
+        <v>13.7814649387136</v>
       </c>
       <c r="H7" t="n">
         <v>7.51562441954945</v>
@@ -829,7 +829,7 @@
         <v>15.5002973983739</v>
       </c>
       <c r="O7" t="n">
-        <v>20.4907867921447</v>
+        <v>10.8959708765518</v>
       </c>
     </row>
     <row r="8">
@@ -846,13 +846,13 @@
         <v>10.7070648157541</v>
       </c>
       <c r="E8" t="n">
-        <v>25.9808427212673</v>
+        <v>15.3955883547002</v>
       </c>
       <c r="F8" t="n">
-        <v>72.7935498750166</v>
+        <v>67.728730780612</v>
       </c>
       <c r="G8" t="n">
-        <v>15.6076433620457</v>
+        <v>28.8393349384185</v>
       </c>
       <c r="H8" t="n">
         <v>2.02213505097709</v>
@@ -876,7 +876,7 @@
         <v>13.5693687513185</v>
       </c>
       <c r="O8" t="n">
-        <v>21.2297389157983</v>
+        <v>16.1047965298636</v>
       </c>
     </row>
     <row r="9">
@@ -893,10 +893,10 @@
         <v>19.375477173185</v>
       </c>
       <c r="E9" t="n">
-        <v>37.7083740261276</v>
+        <v>32.9188012348906</v>
       </c>
       <c r="F9" t="n">
-        <v>68.7378869961782</v>
+        <v>46.4543590610001</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>10.027513996313</v>
       </c>
       <c r="O9" t="n">
-        <v>32.7832256453794</v>
+        <v>24.7791046660454</v>
       </c>
     </row>
     <row r="10">
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>34.6604601887434</v>
+        <v>26.0229244085455</v>
       </c>
       <c r="F10" t="n">
-        <v>30.8357179851002</v>
+        <v>27.6994884623305</v>
       </c>
       <c r="G10" t="n">
-        <v>12.0110709218961</v>
+        <v>17.3620393718505</v>
       </c>
       <c r="H10" t="n">
         <v>2.08920514206656</v>
@@ -970,7 +970,7 @@
         <v>8.25359349944793</v>
       </c>
       <c r="O10" t="n">
-        <v>28.3798313547371</v>
+        <v>22.467059965617</v>
       </c>
     </row>
     <row r="11">
@@ -987,13 +987,13 @@
         <v>5.38530332515876</v>
       </c>
       <c r="E11" t="n">
-        <v>12.7706598493404</v>
+        <v>8.45945425341488</v>
       </c>
       <c r="F11" t="n">
-        <v>56.4122978012966</v>
+        <v>53.036448921715</v>
       </c>
       <c r="G11" t="n">
-        <v>43.2850697003098</v>
+        <v>25.7418898580885</v>
       </c>
       <c r="H11" t="n">
         <v>2.87308156384616</v>
@@ -1017,7 +1017,7 @@
         <v>7.24780696695851</v>
       </c>
       <c r="O11" t="n">
-        <v>33.2727872026158</v>
+        <v>26.955630150195</v>
       </c>
     </row>
     <row r="12">
@@ -1034,13 +1034,13 @@
         <v>16.3581175757168</v>
       </c>
       <c r="E12" t="n">
-        <v>52.3872415697636</v>
+        <v>46.3845117886247</v>
       </c>
       <c r="F12" t="n">
-        <v>61.4698031263128</v>
+        <v>79.9672536667872</v>
       </c>
       <c r="G12" t="n">
-        <v>42.8379626501954</v>
+        <v>40.62125387354</v>
       </c>
       <c r="H12" t="n">
         <v>11.249690514495</v>
@@ -1064,7 +1064,7 @@
         <v>14.8631556183898</v>
       </c>
       <c r="O12" t="n">
-        <v>28.7855647293292</v>
+        <v>26.755206517537</v>
       </c>
     </row>
     <row r="13">
@@ -1081,13 +1081,13 @@
         <v>22.8460459542939</v>
       </c>
       <c r="E13" t="n">
-        <v>21.1987927688836</v>
+        <v>25.4216535105713</v>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>92.9026998356858</v>
       </c>
       <c r="G13" t="n">
-        <v>52.5215521613467</v>
+        <v>46.9958076696662</v>
       </c>
       <c r="H13" t="n">
         <v>23.0863105795546</v>
@@ -1111,7 +1111,7 @@
         <v>22.6044093779579</v>
       </c>
       <c r="O13" t="n">
-        <v>34.4714071544132</v>
+        <v>40.7848728451421</v>
       </c>
     </row>
     <row r="14">
@@ -1128,13 +1128,13 @@
         <v>28.609064603863</v>
       </c>
       <c r="E14" t="n">
-        <v>29.8281871245924</v>
+        <v>50.5484532362303</v>
       </c>
       <c r="F14" t="n">
-        <v>93.9237009582199</v>
+        <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>72.0749449282443</v>
+        <v>69.9686913785539</v>
       </c>
       <c r="H14" t="n">
         <v>30.6209256857964</v>
@@ -1158,7 +1158,7 @@
         <v>48.0341836018649</v>
       </c>
       <c r="O14" t="n">
-        <v>32.4481240050498</v>
+        <v>48.5702248565948</v>
       </c>
     </row>
     <row r="15">
@@ -1175,13 +1175,13 @@
         <v>92.6474402474379</v>
       </c>
       <c r="E15" t="n">
-        <v>46.3173921216736</v>
+        <v>69.7405678229827</v>
       </c>
       <c r="F15" t="n">
-        <v>54.8629453246857</v>
+        <v>56.3340323446484</v>
       </c>
       <c r="G15" t="n">
-        <v>70.5654543598192</v>
+        <v>59.2652823252701</v>
       </c>
       <c r="H15" t="n">
         <v>92.4267024044615</v>
@@ -1205,7 +1205,7 @@
         <v>73.3673315843298</v>
       </c>
       <c r="O15" t="n">
-        <v>43.0955074716612</v>
+        <v>62.1080058419361</v>
       </c>
     </row>
     <row r="16">
@@ -1222,13 +1222,13 @@
         <v>98.8454899016885</v>
       </c>
       <c r="E16" t="n">
-        <v>53.1409431687175</v>
+        <v>66.0349964665954</v>
       </c>
       <c r="F16" t="n">
-        <v>31.140656472935</v>
+        <v>26.6854506454829</v>
       </c>
       <c r="G16" t="n">
-        <v>38.2238494918008</v>
+        <v>34.4801725694195</v>
       </c>
       <c r="H16" t="n">
         <v>96.5992095420706</v>
@@ -1252,7 +1252,7 @@
         <v>97.1643100497088</v>
       </c>
       <c r="O16" t="n">
-        <v>53.3443388086369</v>
+        <v>66.4903678960283</v>
       </c>
     </row>
     <row r="17">
@@ -1269,13 +1269,13 @@
         <v>100</v>
       </c>
       <c r="E17" t="n">
-        <v>60.5746811355196</v>
+        <v>63.6955393985068</v>
       </c>
       <c r="F17" t="n">
-        <v>4.65802094791701</v>
+        <v>2.79737636965243</v>
       </c>
       <c r="G17" t="n">
-        <v>54.212420864621</v>
+        <v>42.3676237941616</v>
       </c>
       <c r="H17" t="n">
         <v>100</v>
@@ -1299,7 +1299,7 @@
         <v>88.8326790886814</v>
       </c>
       <c r="O17" t="n">
-        <v>50.3885587907983</v>
+        <v>61.0070497098434</v>
       </c>
     </row>
     <row r="18">
@@ -1316,13 +1316,13 @@
         <v>67.6525473643556</v>
       </c>
       <c r="E18" t="n">
-        <v>37.4500520681579</v>
+        <v>53.2906132644279</v>
       </c>
       <c r="F18" t="n">
-        <v>20.001954041122</v>
+        <v>27.2354630986116</v>
       </c>
       <c r="G18" t="n">
-        <v>43.1743713241571</v>
+        <v>49.0882636544963</v>
       </c>
       <c r="H18" t="n">
         <v>72.678852681177</v>
@@ -1346,7 +1346,7 @@
         <v>75.4792556930045</v>
       </c>
       <c r="O18" t="n">
-        <v>46.0256537272261</v>
+        <v>56.2281484299513</v>
       </c>
     </row>
     <row r="19">
@@ -1363,13 +1363,13 @@
         <v>58.7852197146579</v>
       </c>
       <c r="E19" t="n">
-        <v>40.0522279780008</v>
+        <v>51.6982926269192</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>7.3738198320249</v>
       </c>
       <c r="G19" t="n">
-        <v>44.7008648398745</v>
+        <v>49.7434110398185</v>
       </c>
       <c r="H19" t="n">
         <v>58.807585881792</v>
@@ -1393,7 +1393,7 @@
         <v>64.3158660738762</v>
       </c>
       <c r="O19" t="n">
-        <v>44.8577767433992</v>
+        <v>53.6514718319309</v>
       </c>
     </row>
     <row r="20">
@@ -1410,13 +1410,13 @@
         <v>66.5098311426152</v>
       </c>
       <c r="E20" t="n">
-        <v>57.0710501840389</v>
+        <v>55.9655096044456</v>
       </c>
       <c r="F20" t="n">
-        <v>28.2145082449819</v>
+        <v>27.8543443785864</v>
       </c>
       <c r="G20" t="n">
-        <v>79.1495219284295</v>
+        <v>63.4910976240857</v>
       </c>
       <c r="H20" t="n">
         <v>64.1335407575549</v>
@@ -1440,7 +1440,7 @@
         <v>62.2949909630859</v>
       </c>
       <c r="O20" t="n">
-        <v>52.3217572646975</v>
+        <v>54.8606075334613</v>
       </c>
     </row>
     <row r="21">
@@ -1457,13 +1457,13 @@
         <v>61.5899220319848</v>
       </c>
       <c r="E21" t="n">
-        <v>59.8419936320528</v>
+        <v>56.9180203690193</v>
       </c>
       <c r="F21" t="n">
-        <v>30.4117021027328</v>
+        <v>32.9784400022066</v>
       </c>
       <c r="G21" t="n">
-        <v>39.4234494301741</v>
+        <v>35.1398708399545</v>
       </c>
       <c r="H21" t="n">
         <v>59.4090102103562</v>
@@ -1487,7 +1487,7 @@
         <v>67.7384510134083</v>
       </c>
       <c r="O21" t="n">
-        <v>49.5357979647986</v>
+        <v>51.697785533983</v>
       </c>
     </row>
     <row r="22">
@@ -1504,13 +1504,13 @@
         <v>75.1155998656248</v>
       </c>
       <c r="E22" t="n">
-        <v>31.6943500783043</v>
+        <v>42.2098266284843</v>
       </c>
       <c r="F22" t="n">
-        <v>12.2365624840975</v>
+        <v>10.0729192806414</v>
       </c>
       <c r="G22" t="n">
-        <v>52.5302826425757</v>
+        <v>63.2431314848009</v>
       </c>
       <c r="H22" t="n">
         <v>76.0608528086491</v>
@@ -1534,7 +1534,7 @@
         <v>70.7396863800941</v>
       </c>
       <c r="O22" t="n">
-        <v>46.7607263751598</v>
+        <v>49.9538454348879</v>
       </c>
     </row>
     <row r="23">
@@ -1551,13 +1551,13 @@
         <v>75.5135372426727</v>
       </c>
       <c r="E23" t="n">
-        <v>48.7458354151225</v>
+        <v>50.7336893071601</v>
       </c>
       <c r="F23" t="n">
-        <v>14.4645738357548</v>
+        <v>20.7344780888275</v>
       </c>
       <c r="G23" t="n">
-        <v>35.3570266171654</v>
+        <v>37.0889182409899</v>
       </c>
       <c r="H23" t="n">
         <v>74.5022681907227</v>
@@ -1581,7 +1581,7 @@
         <v>73.7924864381406</v>
       </c>
       <c r="O23" t="n">
-        <v>44.2700555754685</v>
+        <v>45.2608873904882</v>
       </c>
     </row>
     <row r="24">
@@ -1598,13 +1598,13 @@
         <v>70.7483222061242</v>
       </c>
       <c r="E24" t="n">
-        <v>52.3699812329789</v>
+        <v>42.8391462358203</v>
       </c>
       <c r="F24" t="n">
-        <v>13.8305229796546</v>
+        <v>15.2492515332186</v>
       </c>
       <c r="G24" t="n">
-        <v>39.4224276580063</v>
+        <v>35.2158874326609</v>
       </c>
       <c r="H24" t="n">
         <v>66.1109296001376</v>
@@ -1628,7 +1628,7 @@
         <v>67.7956670145054</v>
       </c>
       <c r="O24" t="n">
-        <v>43.1586082792036</v>
+        <v>42.375764050355</v>
       </c>
     </row>
     <row r="25">
@@ -1645,13 +1645,13 @@
         <v>57.1251415947192</v>
       </c>
       <c r="E25" t="n">
-        <v>28.3600081895095</v>
+        <v>33.5544566080846</v>
       </c>
       <c r="F25" t="n">
-        <v>14.1968102146068</v>
+        <v>4.45140819862014</v>
       </c>
       <c r="G25" t="n">
-        <v>44.0099401818676</v>
+        <v>40.0931748950824</v>
       </c>
       <c r="H25" t="n">
         <v>59.6845915549589</v>
@@ -1675,7 +1675,7 @@
         <v>67.2883990357772</v>
       </c>
       <c r="O25" t="n">
-        <v>39.4364003115183</v>
+        <v>39.3312503975409</v>
       </c>
     </row>
     <row r="26">
@@ -1692,13 +1692,13 @@
         <v>73.9917333064881</v>
       </c>
       <c r="E26" t="n">
-        <v>37.5792115120665</v>
+        <v>41.6001483487177</v>
       </c>
       <c r="F26" t="n">
-        <v>19.7805297303122</v>
+        <v>11.6770140691426</v>
       </c>
       <c r="G26" t="n">
-        <v>35.4991964680699</v>
+        <v>36.8077172890734</v>
       </c>
       <c r="H26" t="n">
         <v>64.3112031403753</v>
@@ -1722,7 +1722,7 @@
         <v>67.1846465933673</v>
       </c>
       <c r="O26" t="n">
-        <v>34.4090459710479</v>
+        <v>39.4221830162263</v>
       </c>
     </row>
     <row r="27">
@@ -1739,10 +1739,10 @@
         <v>70.4370648788947</v>
       </c>
       <c r="E27" t="n">
-        <v>37.2879182115676</v>
+        <v>43.1119440918766</v>
       </c>
       <c r="F27" t="n">
-        <v>34.2123964175397</v>
+        <v>27.2330993069676</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -1769,7 +1769,7 @@
         <v>67.5929311727915</v>
       </c>
       <c r="O27" t="n">
-        <v>34.3230887274134</v>
+        <v>35.6765785648127</v>
       </c>
     </row>
     <row r="28">
@@ -1786,13 +1786,13 @@
         <v>58.3499953329917</v>
       </c>
       <c r="E28" t="n">
-        <v>28.1021364586061</v>
+        <v>22.3176432538439</v>
       </c>
       <c r="F28" t="n">
-        <v>34.5700359529866</v>
+        <v>38.0206388222085</v>
       </c>
       <c r="G28" t="n">
-        <v>76.2736534541495</v>
+        <v>80.9453292725553</v>
       </c>
       <c r="H28" t="n">
         <v>56.7420518538786</v>
@@ -1816,7 +1816,7 @@
         <v>62.8626550474452</v>
       </c>
       <c r="O28" t="n">
-        <v>31.8168630997932</v>
+        <v>31.9611206888661</v>
       </c>
     </row>
     <row r="29">
@@ -1833,13 +1833,13 @@
         <v>59.8009049304493</v>
       </c>
       <c r="E29" t="n">
-        <v>30.0605346292059</v>
+        <v>30.4537747208777</v>
       </c>
       <c r="F29" t="n">
-        <v>15.9637287720192</v>
+        <v>11.9673712011208</v>
       </c>
       <c r="G29" t="n">
-        <v>53.5605384956214</v>
+        <v>35.2482038436165</v>
       </c>
       <c r="H29" t="n">
         <v>53.6622722466435</v>
@@ -1863,7 +1863,7 @@
         <v>60.6167471525721</v>
       </c>
       <c r="O29" t="n">
-        <v>35.7280755992248</v>
+        <v>34.323346497315</v>
       </c>
     </row>
     <row r="30">
@@ -1880,13 +1880,13 @@
         <v>63.6993411942752</v>
       </c>
       <c r="E30" t="n">
-        <v>49.0215557098622</v>
+        <v>50.1986215172233</v>
       </c>
       <c r="F30" t="n">
-        <v>8.18265813790937</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>45.8526109926702</v>
+        <v>48.4673331482681</v>
       </c>
       <c r="H30" t="n">
         <v>52.8354693255397</v>
@@ -1910,7 +1910,7 @@
         <v>65.1672683276305</v>
       </c>
       <c r="O30" t="n">
-        <v>34.5609164819458</v>
+        <v>34.0825351920349</v>
       </c>
     </row>
     <row r="31">
@@ -1927,13 +1927,13 @@
         <v>72.001558858167</v>
       </c>
       <c r="E31" t="n">
-        <v>24.6006591067691</v>
+        <v>21.5952093380036</v>
       </c>
       <c r="F31" t="n">
-        <v>31.1181618226581</v>
+        <v>22.2473805637498</v>
       </c>
       <c r="G31" t="n">
-        <v>34.4352772430064</v>
+        <v>43.9363716776549</v>
       </c>
       <c r="H31" t="n">
         <v>61.1256850853011</v>
@@ -1957,7 +1957,7 @@
         <v>66.2460473894008</v>
       </c>
       <c r="O31" t="n">
-        <v>33.7001136038646</v>
+        <v>31.3278277008338</v>
       </c>
     </row>
     <row r="32">
@@ -1974,13 +1974,13 @@
         <v>63.0372421157603</v>
       </c>
       <c r="E32" t="n">
-        <v>27.4781259949623</v>
+        <v>22.1896522472743</v>
       </c>
       <c r="F32" t="n">
-        <v>18.4738235432201</v>
+        <v>18.7405256851589</v>
       </c>
       <c r="G32" t="n">
-        <v>40.4613313281819</v>
+        <v>44.3575898727741</v>
       </c>
       <c r="H32" t="n">
         <v>53.6859838288415</v>
@@ -2004,7 +2004,7 @@
         <v>70.8251628176922</v>
       </c>
       <c r="O32" t="n">
-        <v>34.5193444498483</v>
+        <v>30.741223591634</v>
       </c>
     </row>
     <row r="33">
@@ -2021,13 +2021,13 @@
         <v>77.4366874791492</v>
       </c>
       <c r="E33" t="n">
-        <v>51.4792482478136</v>
+        <v>48.4388091896242</v>
       </c>
       <c r="F33" t="n">
-        <v>56.6897481879278</v>
+        <v>49.5309203969856</v>
       </c>
       <c r="G33" t="n">
-        <v>13.6037700833912</v>
+        <v>11.5162359765885</v>
       </c>
       <c r="H33" t="n">
         <v>66.2083056850786</v>
@@ -2051,7 +2051,7 @@
         <v>69.7976254930536</v>
       </c>
       <c r="O33" t="n">
-        <v>42.9064645156974</v>
+        <v>38.3626109232966</v>
       </c>
     </row>
     <row r="34">
@@ -2068,13 +2068,13 @@
         <v>68.9189468842514</v>
       </c>
       <c r="E34" t="n">
-        <v>49.7620193043161</v>
+        <v>44.4593713329913</v>
       </c>
       <c r="F34" t="n">
-        <v>10.1578237900433</v>
+        <v>13.0695992613325</v>
       </c>
       <c r="G34" t="n">
-        <v>23.2594644224593</v>
+        <v>23.3696070450928</v>
       </c>
       <c r="H34" t="n">
         <v>57.7410495693069</v>
@@ -2098,7 +2098,7 @@
         <v>70.6853349977494</v>
       </c>
       <c r="O34" t="n">
-        <v>67.0804225173766</v>
+        <v>64.2993935075385</v>
       </c>
     </row>
     <row r="35">
@@ -2118,10 +2118,10 @@
         <v>100</v>
       </c>
       <c r="F35" t="n">
-        <v>57.1325421565696</v>
+        <v>51.4271541095148</v>
       </c>
       <c r="G35" t="n">
-        <v>45.7983434393182</v>
+        <v>43.3303793635769</v>
       </c>
       <c r="H35" t="n">
         <v>8.87784059790444</v>
@@ -2145,7 +2145,7 @@
         <v>62.9389655596075</v>
       </c>
       <c r="O35" t="n">
-        <v>72.3056837708747</v>
+        <v>67.1823940508749</v>
       </c>
     </row>
     <row r="36">
@@ -2162,13 +2162,13 @@
         <v>54.1975791647233</v>
       </c>
       <c r="E36" t="n">
-        <v>67.1550320083081</v>
+        <v>57.0878108196335</v>
       </c>
       <c r="F36" t="n">
-        <v>21.3741391545865</v>
+        <v>16.9199798115907</v>
       </c>
       <c r="G36" t="n">
-        <v>23.7919274158024</v>
+        <v>28.8402915996229</v>
       </c>
       <c r="H36" t="n">
         <v>17.4355428359729</v>
@@ -2192,7 +2192,7 @@
         <v>56.6439475044934</v>
       </c>
       <c r="O36" t="n">
-        <v>72.4587247702676</v>
+        <v>63.5783161856765</v>
       </c>
     </row>
     <row r="37">
@@ -2209,13 +2209,13 @@
         <v>50.0338927189092</v>
       </c>
       <c r="E37" t="n">
-        <v>50.2211423024948</v>
+        <v>33.6471377373959</v>
       </c>
       <c r="F37" t="n">
-        <v>27.9166322432785</v>
+        <v>31.8279067273234</v>
       </c>
       <c r="G37" t="n">
-        <v>51.6883667165728</v>
+        <v>60.0606520473808</v>
       </c>
       <c r="H37" t="n">
         <v>29.7171459884648</v>
@@ -2239,7 +2239,7 @@
         <v>58.3582231510139</v>
       </c>
       <c r="O37" t="n">
-        <v>65.7533526518019</v>
+        <v>56.7864694995655</v>
       </c>
     </row>
     <row r="38">
@@ -2256,13 +2256,13 @@
         <v>70.8431975694092</v>
       </c>
       <c r="E38" t="n">
-        <v>79.8838836446028</v>
+        <v>79.6244599416669</v>
       </c>
       <c r="F38" t="n">
-        <v>97.5803545999957</v>
+        <v>86.2677801899456</v>
       </c>
       <c r="G38" t="n">
-        <v>58.3524815031169</v>
+        <v>40.2818874937868</v>
       </c>
       <c r="H38" t="n">
         <v>31.2098374486723</v>
@@ -3941,37 +3941,37 @@
         <v>44197</v>
       </c>
       <c r="B2" t="n">
-        <v>2216</v>
+        <v>2668</v>
       </c>
       <c r="C2" t="n">
-        <v>5120</v>
+        <v>4084</v>
       </c>
       <c r="D2" t="n">
-        <v>-2904</v>
+        <v>-1416</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.275604924480339</v>
+        <v>-0.15031013619749</v>
       </c>
       <c r="F2" t="n">
-        <v>5345</v>
+        <v>5960</v>
       </c>
       <c r="G2" t="n">
-        <v>1274</v>
+        <v>1838</v>
       </c>
       <c r="H2" t="n">
-        <v>953</v>
+        <v>1307</v>
       </c>
       <c r="I2" t="n">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="J2" t="n">
-        <v>5427</v>
+        <v>6947</v>
       </c>
       <c r="K2" t="n">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="L2" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -3979,37 +3979,37 @@
         <v>44228</v>
       </c>
       <c r="B3" t="n">
-        <v>1160</v>
+        <v>1566</v>
       </c>
       <c r="C3" t="n">
-        <v>2732</v>
+        <v>2438</v>
       </c>
       <c r="D3" t="n">
-        <v>-1572</v>
+        <v>-872</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.245279371276304</v>
+        <v>-0.127097733980403</v>
       </c>
       <c r="F3" t="n">
-        <v>2675</v>
+        <v>3054</v>
       </c>
       <c r="G3" t="n">
-        <v>749</v>
+        <v>1136</v>
       </c>
       <c r="H3" t="n">
-        <v>533</v>
+        <v>730</v>
       </c>
       <c r="I3" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="J3" t="n">
-        <v>2680</v>
+        <v>3231</v>
       </c>
       <c r="K3" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="L3" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -4017,37 +4017,37 @@
         <v>44256</v>
       </c>
       <c r="B4" t="n">
-        <v>1061</v>
+        <v>1379</v>
       </c>
       <c r="C4" t="n">
-        <v>2437</v>
+        <v>2375</v>
       </c>
       <c r="D4" t="n">
-        <v>-1376</v>
+        <v>-996</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.22432174628093</v>
+        <v>-0.134282402404851</v>
       </c>
       <c r="F4" t="n">
-        <v>2649</v>
+        <v>3258</v>
       </c>
       <c r="G4" t="n">
-        <v>684</v>
+        <v>1300</v>
       </c>
       <c r="H4" t="n">
-        <v>357</v>
+        <v>470</v>
       </c>
       <c r="I4" t="n">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="J4" t="n">
-        <v>2237</v>
+        <v>2950</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="L4" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -4055,37 +4055,37 @@
         <v>44287</v>
       </c>
       <c r="B5" t="n">
-        <v>1435</v>
+        <v>1720</v>
       </c>
       <c r="C5" t="n">
-        <v>2959</v>
+        <v>2433</v>
       </c>
       <c r="D5" t="n">
-        <v>-1524</v>
+        <v>-713</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.235556957686095</v>
+        <v>-0.111818824140034</v>
       </c>
       <c r="F5" t="n">
-        <v>2657</v>
+        <v>3070</v>
       </c>
       <c r="G5" t="n">
-        <v>778</v>
+        <v>1038</v>
       </c>
       <c r="H5" t="n">
-        <v>411</v>
+        <v>556</v>
       </c>
       <c r="I5" t="n">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="J5" t="n">
-        <v>2600</v>
+        <v>3220</v>
       </c>
       <c r="K5" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="L5" t="n">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -4093,37 +4093,37 @@
         <v>44317</v>
       </c>
       <c r="B6" t="n">
-        <v>1804</v>
+        <v>2792</v>
       </c>
       <c r="C6" t="n">
-        <v>3995</v>
+        <v>3725</v>
       </c>
       <c r="D6" t="n">
-        <v>-2191</v>
+        <v>-933</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.261881744703831</v>
+        <v>-0.0862042201152631</v>
       </c>
       <c r="F6" t="n">
-        <v>3543</v>
+        <v>3918</v>
       </c>
       <c r="G6" t="n">
-        <v>694</v>
+        <v>1105</v>
       </c>
       <c r="H6" t="n">
-        <v>686</v>
+        <v>870</v>
       </c>
       <c r="I6" t="n">
-        <v>205</v>
+        <v>337</v>
       </c>
       <c r="J6" t="n">
-        <v>3495</v>
+        <v>4109</v>
       </c>
       <c r="K6" t="n">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="L6" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -4131,37 +4131,37 @@
         <v>44348</v>
       </c>
       <c r="B7" t="n">
-        <v>1994</v>
+        <v>2513</v>
       </c>
       <c r="C7" t="n">
-        <v>3013</v>
+        <v>2584</v>
       </c>
       <c r="D7" t="n">
-        <v>-1019</v>
+        <v>-71</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.132702425779349</v>
+        <v>-0.0167205400341495</v>
       </c>
       <c r="F7" t="n">
-        <v>2808</v>
+        <v>3281</v>
       </c>
       <c r="G7" t="n">
-        <v>599</v>
+        <v>926</v>
       </c>
       <c r="H7" t="n">
-        <v>521</v>
+        <v>630</v>
       </c>
       <c r="I7" t="n">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="J7" t="n">
-        <v>3518</v>
+        <v>3906</v>
       </c>
       <c r="K7" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -4169,37 +4169,37 @@
         <v>44378</v>
       </c>
       <c r="B8" t="n">
-        <v>1111</v>
+        <v>1584</v>
       </c>
       <c r="C8" t="n">
-        <v>2546</v>
+        <v>2167</v>
       </c>
       <c r="D8" t="n">
-        <v>-1435</v>
+        <v>-583</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.22726551548506</v>
+        <v>-0.0785827928400282</v>
       </c>
       <c r="F8" t="n">
-        <v>2578</v>
+        <v>2933</v>
       </c>
       <c r="G8" t="n">
-        <v>536</v>
+        <v>914</v>
       </c>
       <c r="H8" t="n">
-        <v>440</v>
+        <v>494</v>
       </c>
       <c r="I8" t="n">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="J8" t="n">
-        <v>2375</v>
+        <v>2923</v>
       </c>
       <c r="K8" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L8" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -4207,37 +4207,37 @@
         <v>44409</v>
       </c>
       <c r="B9" t="n">
-        <v>1546</v>
+        <v>2022</v>
       </c>
       <c r="C9" t="n">
-        <v>3808</v>
+        <v>3705</v>
       </c>
       <c r="D9" t="n">
-        <v>-2262</v>
+        <v>-1683</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.26995048943705</v>
+        <v>-0.148994225010765</v>
       </c>
       <c r="F9" t="n">
-        <v>3301</v>
+        <v>3568</v>
       </c>
       <c r="G9" t="n">
-        <v>578</v>
+        <v>947</v>
       </c>
       <c r="H9" t="n">
-        <v>649</v>
+        <v>890</v>
       </c>
       <c r="I9" t="n">
-        <v>72</v>
+        <v>274</v>
       </c>
       <c r="J9" t="n">
-        <v>2900</v>
+        <v>3960</v>
       </c>
       <c r="K9" t="n">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="L9" t="n">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
@@ -4245,37 +4245,37 @@
         <v>44440</v>
       </c>
       <c r="B10" t="n">
-        <v>1493</v>
+        <v>2132</v>
       </c>
       <c r="C10" t="n">
-        <v>3075</v>
+        <v>2922</v>
       </c>
       <c r="D10" t="n">
-        <v>-1582</v>
+        <v>-790</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.258856925124607</v>
+        <v>-0.121285347264673</v>
       </c>
       <c r="F10" t="n">
-        <v>2804</v>
+        <v>3197</v>
       </c>
       <c r="G10" t="n">
-        <v>634</v>
+        <v>1035</v>
       </c>
       <c r="H10" t="n">
-        <v>553</v>
+        <v>717</v>
       </c>
       <c r="I10" t="n">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="J10" t="n">
-        <v>3277</v>
+        <v>4048</v>
       </c>
       <c r="K10" t="n">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="L10" t="n">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -4283,37 +4283,37 @@
         <v>44470</v>
       </c>
       <c r="B11" t="n">
-        <v>1591</v>
+        <v>2412</v>
       </c>
       <c r="C11" t="n">
-        <v>3015</v>
+        <v>2782</v>
       </c>
       <c r="D11" t="n">
-        <v>-1424</v>
+        <v>-370</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.179184099445221</v>
+        <v>-0.0507121540970671</v>
       </c>
       <c r="F11" t="n">
-        <v>3407</v>
+        <v>3890</v>
       </c>
       <c r="G11" t="n">
-        <v>962</v>
+        <v>1238</v>
       </c>
       <c r="H11" t="n">
-        <v>494</v>
+        <v>738</v>
       </c>
       <c r="I11" t="n">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="J11" t="n">
-        <v>3426</v>
+        <v>4238</v>
       </c>
       <c r="K11" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="L11" t="n">
-        <v>25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
@@ -4321,37 +4321,37 @@
         <v>44501</v>
       </c>
       <c r="B12" t="n">
-        <v>1736</v>
+        <v>2741</v>
       </c>
       <c r="C12" t="n">
-        <v>5159</v>
+        <v>5092</v>
       </c>
       <c r="D12" t="n">
-        <v>-3423</v>
+        <v>-2351</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.32337751192431</v>
+        <v>-0.203101880482833</v>
       </c>
       <c r="F12" t="n">
-        <v>4072</v>
+        <v>4949</v>
       </c>
       <c r="G12" t="n">
-        <v>1129</v>
+        <v>1612</v>
       </c>
       <c r="H12" t="n">
-        <v>734</v>
+        <v>925</v>
       </c>
       <c r="I12" t="n">
-        <v>114</v>
+        <v>261</v>
       </c>
       <c r="J12" t="n">
-        <v>4532</v>
+        <v>5643</v>
       </c>
       <c r="K12" t="n">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="L12" t="n">
-        <v>17</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
@@ -4359,37 +4359,37 @@
         <v>44531</v>
       </c>
       <c r="B13" t="n">
-        <v>2427</v>
+        <v>3324</v>
       </c>
       <c r="C13" t="n">
-        <v>4454</v>
+        <v>4778</v>
       </c>
       <c r="D13" t="n">
-        <v>-2027</v>
+        <v>-1454</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.209860174808628</v>
+        <v>-0.118869332271394</v>
       </c>
       <c r="F13" t="n">
-        <v>4439</v>
+        <v>5034</v>
       </c>
       <c r="G13" t="n">
-        <v>1198</v>
+        <v>1648</v>
       </c>
       <c r="H13" t="n">
-        <v>639</v>
+        <v>874</v>
       </c>
       <c r="I13" t="n">
-        <v>128</v>
+        <v>265</v>
       </c>
       <c r="J13" t="n">
-        <v>4563</v>
+        <v>5451</v>
       </c>
       <c r="K13" t="n">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="L13" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -4397,37 +4397,37 @@
         <v>44562</v>
       </c>
       <c r="B14" t="n">
-        <v>3133</v>
+        <v>4210</v>
       </c>
       <c r="C14" t="n">
-        <v>6471</v>
+        <v>7447</v>
       </c>
       <c r="D14" t="n">
-        <v>-3338</v>
+        <v>-3237</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.241268786196621</v>
+        <v>-0.219833348781802</v>
       </c>
       <c r="F14" t="n">
-        <v>5905</v>
+        <v>6931</v>
       </c>
       <c r="G14" t="n">
-        <v>1862</v>
+        <v>2542</v>
       </c>
       <c r="H14" t="n">
-        <v>932</v>
+        <v>1372</v>
       </c>
       <c r="I14" t="n">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="J14" t="n">
-        <v>5430</v>
+        <v>6805</v>
       </c>
       <c r="K14" t="n">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="L14" t="n">
-        <v>26</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -4435,37 +4435,37 @@
         <v>44593</v>
       </c>
       <c r="B15" t="n">
-        <v>7880</v>
+        <v>10540</v>
       </c>
       <c r="C15" t="n">
-        <v>18011</v>
+        <v>22590</v>
       </c>
       <c r="D15" t="n">
-        <v>-10131</v>
+        <v>-12050</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.301284936867457</v>
+        <v>-0.296950729234665</v>
       </c>
       <c r="F15" t="n">
-        <v>12210</v>
+        <v>14141</v>
       </c>
       <c r="G15" t="n">
-        <v>4244</v>
+        <v>5515</v>
       </c>
       <c r="H15" t="n">
-        <v>2790</v>
+        <v>3622</v>
       </c>
       <c r="I15" t="n">
-        <v>427</v>
+        <v>800</v>
       </c>
       <c r="J15" t="n">
-        <v>13248</v>
+        <v>15922</v>
       </c>
       <c r="K15" t="n">
-        <v>918</v>
+        <v>1307</v>
       </c>
       <c r="L15" t="n">
-        <v>66</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16">
@@ -4473,37 +4473,37 @@
         <v>44621</v>
       </c>
       <c r="B16" t="n">
-        <v>15366</v>
+        <v>21838</v>
       </c>
       <c r="C16" t="n">
-        <v>37315</v>
+        <v>43054</v>
       </c>
       <c r="D16" t="n">
-        <v>-21949</v>
+        <v>-21216</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.326120777517265</v>
+        <v>-0.282061074694826</v>
       </c>
       <c r="F16" t="n">
-        <v>24749</v>
+        <v>28099</v>
       </c>
       <c r="G16" t="n">
-        <v>7224</v>
+        <v>10303</v>
       </c>
       <c r="H16" t="n">
-        <v>4294</v>
+        <v>6331</v>
       </c>
       <c r="I16" t="n">
-        <v>963</v>
+        <v>1590</v>
       </c>
       <c r="J16" t="n">
-        <v>24775</v>
+        <v>26927</v>
       </c>
       <c r="K16" t="n">
-        <v>420</v>
+        <v>886</v>
       </c>
       <c r="L16" t="n">
-        <v>100</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17">
@@ -4511,37 +4511,37 @@
         <v>44652</v>
       </c>
       <c r="B17" t="n">
-        <v>6814</v>
+        <v>9940</v>
       </c>
       <c r="C17" t="n">
-        <v>19861</v>
+        <v>21044</v>
       </c>
       <c r="D17" t="n">
-        <v>-13047</v>
+        <v>-11104</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.353177529976954</v>
+        <v>-0.272660713939505</v>
       </c>
       <c r="F17" t="n">
-        <v>11677</v>
+        <v>13339</v>
       </c>
       <c r="G17" t="n">
-        <v>4228</v>
+        <v>5578</v>
       </c>
       <c r="H17" t="n">
-        <v>2531</v>
+        <v>3484</v>
       </c>
       <c r="I17" t="n">
-        <v>515</v>
+        <v>936</v>
       </c>
       <c r="J17" t="n">
-        <v>13466</v>
+        <v>15406</v>
       </c>
       <c r="K17" t="n">
-        <v>271</v>
+        <v>427</v>
       </c>
       <c r="L17" t="n">
-        <v>89</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
@@ -4549,37 +4549,37 @@
         <v>44682</v>
       </c>
       <c r="B18" t="n">
-        <v>6210</v>
+        <v>8246</v>
       </c>
       <c r="C18" t="n">
-        <v>13896</v>
+        <v>15363</v>
       </c>
       <c r="D18" t="n">
-        <v>-7686</v>
+        <v>-7117</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.269010268877366</v>
+        <v>-0.230851842715927</v>
       </c>
       <c r="F18" t="n">
-        <v>10177</v>
+        <v>11992</v>
       </c>
       <c r="G18" t="n">
-        <v>3209</v>
+        <v>4817</v>
       </c>
       <c r="H18" t="n">
-        <v>2181</v>
+        <v>3237</v>
       </c>
       <c r="I18" t="n">
-        <v>361</v>
+        <v>627</v>
       </c>
       <c r="J18" t="n">
-        <v>12642</v>
+        <v>14292</v>
       </c>
       <c r="K18" t="n">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="L18" t="n">
-        <v>47</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
@@ -4587,37 +4587,37 @@
         <v>44713</v>
       </c>
       <c r="B19" t="n">
-        <v>4295</v>
+        <v>6028</v>
       </c>
       <c r="C19" t="n">
-        <v>10583</v>
+        <v>11536</v>
       </c>
       <c r="D19" t="n">
-        <v>-6288</v>
+        <v>-5508</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.278481470278816</v>
+        <v>-0.224453610991609</v>
       </c>
       <c r="F19" t="n">
-        <v>7619</v>
+        <v>8985</v>
       </c>
       <c r="G19" t="n">
-        <v>2601</v>
+        <v>3871</v>
       </c>
       <c r="H19" t="n">
-        <v>1474</v>
+        <v>2132</v>
       </c>
       <c r="I19" t="n">
-        <v>423</v>
+        <v>640</v>
       </c>
       <c r="J19" t="n">
-        <v>10223</v>
+        <v>11322</v>
       </c>
       <c r="K19" t="n">
-        <v>247</v>
+        <v>452</v>
       </c>
       <c r="L19" t="n">
-        <v>17</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
@@ -4625,37 +4625,37 @@
         <v>44743</v>
       </c>
       <c r="B20" t="n">
-        <v>3052</v>
+        <v>4241</v>
       </c>
       <c r="C20" t="n">
-        <v>8940</v>
+        <v>8749</v>
       </c>
       <c r="D20" t="n">
-        <v>-5888</v>
+        <v>-4508</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.340425281271435</v>
+        <v>-0.241600059010315</v>
       </c>
       <c r="F20" t="n">
-        <v>5901</v>
+        <v>6787</v>
       </c>
       <c r="G20" t="n">
-        <v>2352</v>
+        <v>2959</v>
       </c>
       <c r="H20" t="n">
-        <v>1029</v>
+        <v>1570</v>
       </c>
       <c r="I20" t="n">
-        <v>314</v>
+        <v>524</v>
       </c>
       <c r="J20" t="n">
-        <v>6330</v>
+        <v>7577</v>
       </c>
       <c r="K20" t="n">
-        <v>166</v>
+        <v>289</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
@@ -4663,37 +4663,37 @@
         <v>44774</v>
       </c>
       <c r="B21" t="n">
-        <v>3540</v>
+        <v>4605</v>
       </c>
       <c r="C21" t="n">
-        <v>9470</v>
+        <v>9210</v>
       </c>
       <c r="D21" t="n">
-        <v>-5930</v>
+        <v>-4605</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.35051074988595</v>
+        <v>-0.245427419183945</v>
       </c>
       <c r="F21" t="n">
-        <v>6340</v>
+        <v>7361</v>
       </c>
       <c r="G21" t="n">
-        <v>1874</v>
+        <v>2657</v>
       </c>
       <c r="H21" t="n">
-        <v>1127</v>
+        <v>1601</v>
       </c>
       <c r="I21" t="n">
-        <v>149</v>
+        <v>419</v>
       </c>
       <c r="J21" t="n">
-        <v>5823</v>
+        <v>7068</v>
       </c>
       <c r="K21" t="n">
-        <v>199</v>
+        <v>332</v>
       </c>
       <c r="L21" t="n">
-        <v>11</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22">
@@ -4701,37 +4701,37 @@
         <v>44805</v>
       </c>
       <c r="B22" t="n">
-        <v>4563</v>
+        <v>6081</v>
       </c>
       <c r="C22" t="n">
-        <v>9761</v>
+        <v>10511</v>
       </c>
       <c r="D22" t="n">
-        <v>-5198</v>
+        <v>-4430</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.248061103778101</v>
+        <v>-0.186327242007733</v>
       </c>
       <c r="F22" t="n">
-        <v>6560</v>
+        <v>7491</v>
       </c>
       <c r="G22" t="n">
-        <v>2286</v>
+        <v>3459</v>
       </c>
       <c r="H22" t="n">
-        <v>1129</v>
+        <v>1595</v>
       </c>
       <c r="I22" t="n">
-        <v>276</v>
+        <v>478</v>
       </c>
       <c r="J22" t="n">
-        <v>7185</v>
+        <v>8796</v>
       </c>
       <c r="K22" t="n">
-        <v>248</v>
+        <v>325</v>
       </c>
       <c r="L22" t="n">
-        <v>92</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23">
@@ -4739,37 +4739,37 @@
         <v>44835</v>
       </c>
       <c r="B23" t="n">
-        <v>5776</v>
+        <v>8510</v>
       </c>
       <c r="C23" t="n">
-        <v>14677</v>
+        <v>15740</v>
       </c>
       <c r="D23" t="n">
-        <v>-8901</v>
+        <v>-7230</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.310123799542826</v>
+        <v>-0.220577660748622</v>
       </c>
       <c r="F23" t="n">
-        <v>9850</v>
+        <v>11571</v>
       </c>
       <c r="G23" t="n">
-        <v>2958</v>
+        <v>4401</v>
       </c>
       <c r="H23" t="n">
-        <v>1917</v>
+        <v>2801</v>
       </c>
       <c r="I23" t="n">
-        <v>400</v>
+        <v>744</v>
       </c>
       <c r="J23" t="n">
-        <v>11487</v>
+        <v>13203</v>
       </c>
       <c r="K23" t="n">
-        <v>285</v>
+        <v>353</v>
       </c>
       <c r="L23" t="n">
-        <v>33</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24">
@@ -4777,37 +4777,37 @@
         <v>44866</v>
       </c>
       <c r="B24" t="n">
-        <v>4313</v>
+        <v>6263</v>
       </c>
       <c r="C24" t="n">
-        <v>10630</v>
+        <v>10771</v>
       </c>
       <c r="D24" t="n">
-        <v>-6317</v>
+        <v>-4508</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.323314689066975</v>
+        <v>-0.188855961777824</v>
       </c>
       <c r="F24" t="n">
-        <v>6951</v>
+        <v>8035</v>
       </c>
       <c r="G24" t="n">
-        <v>2167</v>
+        <v>3074</v>
       </c>
       <c r="H24" t="n">
-        <v>1292</v>
+        <v>1761</v>
       </c>
       <c r="I24" t="n">
-        <v>223</v>
+        <v>515</v>
       </c>
       <c r="J24" t="n">
-        <v>7440</v>
+        <v>8588</v>
       </c>
       <c r="K24" t="n">
-        <v>106</v>
+        <v>229</v>
       </c>
       <c r="L24" t="n">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -4815,37 +4815,37 @@
         <v>44896</v>
       </c>
       <c r="B25" t="n">
-        <v>4496</v>
+        <v>5815</v>
       </c>
       <c r="C25" t="n">
-        <v>8945</v>
+        <v>8910</v>
       </c>
       <c r="D25" t="n">
-        <v>-4449</v>
+        <v>-3095</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.235925020490799</v>
+        <v>-0.151548403031636</v>
       </c>
       <c r="F25" t="n">
-        <v>6728</v>
+        <v>7487</v>
       </c>
       <c r="G25" t="n">
-        <v>2177</v>
+        <v>3068</v>
       </c>
       <c r="H25" t="n">
-        <v>1372</v>
+        <v>1843</v>
       </c>
       <c r="I25" t="n">
-        <v>361</v>
+        <v>581</v>
       </c>
       <c r="J25" t="n">
-        <v>7771</v>
+        <v>9490</v>
       </c>
       <c r="K25" t="n">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="L25" t="n">
-        <v>28</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26">
@@ -4853,37 +4853,37 @@
         <v>44927</v>
       </c>
       <c r="B26" t="n">
-        <v>4787</v>
+        <v>6583</v>
       </c>
       <c r="C26" t="n">
-        <v>10396</v>
+        <v>10800</v>
       </c>
       <c r="D26" t="n">
-        <v>-5609</v>
+        <v>-4217</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.269480373569955</v>
+        <v>-0.183877444636938</v>
       </c>
       <c r="F26" t="n">
-        <v>7059</v>
+        <v>7907</v>
       </c>
       <c r="G26" t="n">
-        <v>2086</v>
+        <v>3094</v>
       </c>
       <c r="H26" t="n">
-        <v>1399</v>
+        <v>1920</v>
       </c>
       <c r="I26" t="n">
-        <v>180</v>
+        <v>560</v>
       </c>
       <c r="J26" t="n">
-        <v>8114</v>
+        <v>9389</v>
       </c>
       <c r="K26" t="n">
-        <v>192</v>
+        <v>446</v>
       </c>
       <c r="L26" t="n">
-        <v>63</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27">
@@ -4891,37 +4891,37 @@
         <v>44958</v>
       </c>
       <c r="B27" t="n">
-        <v>4411</v>
+        <v>6164</v>
       </c>
       <c r="C27" t="n">
-        <v>9672</v>
+        <v>10794</v>
       </c>
       <c r="D27" t="n">
-        <v>-5261</v>
+        <v>-4630</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.26842014643255</v>
+        <v>-0.189952112801575</v>
       </c>
       <c r="F27" t="n">
-        <v>6882</v>
+        <v>7753</v>
       </c>
       <c r="G27" t="n">
-        <v>3050</v>
+        <v>4078</v>
       </c>
       <c r="H27" t="n">
-        <v>1240</v>
+        <v>1988</v>
       </c>
       <c r="I27" t="n">
-        <v>243</v>
+        <v>459</v>
       </c>
       <c r="J27" t="n">
-        <v>7956</v>
+        <v>8885</v>
       </c>
       <c r="K27" t="n">
-        <v>141</v>
+        <v>298</v>
       </c>
       <c r="L27" t="n">
-        <v>52</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28">
@@ -4929,37 +4929,37 @@
         <v>44986</v>
       </c>
       <c r="B28" t="n">
-        <v>4603</v>
+        <v>6553</v>
       </c>
       <c r="C28" t="n">
-        <v>9713</v>
+        <v>9235</v>
       </c>
       <c r="D28" t="n">
-        <v>-5110</v>
+        <v>-2682</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.234986438633251</v>
+        <v>-0.106396858807586</v>
       </c>
       <c r="F28" t="n">
-        <v>7117</v>
+        <v>8287</v>
       </c>
       <c r="G28" t="n">
-        <v>2730</v>
+        <v>3840</v>
       </c>
       <c r="H28" t="n">
-        <v>1175</v>
+        <v>1647</v>
       </c>
       <c r="I28" t="n">
-        <v>249</v>
+        <v>470</v>
       </c>
       <c r="J28" t="n">
-        <v>8581</v>
+        <v>9496</v>
       </c>
       <c r="K28" t="n">
-        <v>129</v>
+        <v>293</v>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29">
@@ -4967,37 +4967,37 @@
         <v>45017</v>
       </c>
       <c r="B29" t="n">
-        <v>3328</v>
+        <v>4615</v>
       </c>
       <c r="C29" t="n">
-        <v>7030</v>
+        <v>7191</v>
       </c>
       <c r="D29" t="n">
-        <v>-3702</v>
+        <v>-2576</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.242114466922123</v>
+        <v>-0.139089303557309</v>
       </c>
       <c r="F29" t="n">
-        <v>5168</v>
+        <v>5867</v>
       </c>
       <c r="G29" t="n">
-        <v>1793</v>
+        <v>2270</v>
       </c>
       <c r="H29" t="n">
-        <v>1005</v>
+        <v>1327</v>
       </c>
       <c r="I29" t="n">
-        <v>188</v>
+        <v>476</v>
       </c>
       <c r="J29" t="n">
-        <v>5589</v>
+        <v>6388</v>
       </c>
       <c r="K29" t="n">
-        <v>153</v>
+        <v>293</v>
       </c>
       <c r="L29" t="n">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30">
@@ -5005,37 +5005,37 @@
         <v>45047</v>
       </c>
       <c r="B30" t="n">
-        <v>2662</v>
+        <v>3963</v>
       </c>
       <c r="C30" t="n">
-        <v>7414</v>
+        <v>7780</v>
       </c>
       <c r="D30" t="n">
-        <v>-4752</v>
+        <v>-3817</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.311127345241666</v>
+        <v>-0.218427661792639</v>
       </c>
       <c r="F30" t="n">
-        <v>4679</v>
+        <v>5230</v>
       </c>
       <c r="G30" t="n">
-        <v>1568</v>
+        <v>2294</v>
       </c>
       <c r="H30" t="n">
-        <v>1001</v>
+        <v>1367</v>
       </c>
       <c r="I30" t="n">
-        <v>224</v>
+        <v>517</v>
       </c>
       <c r="J30" t="n">
-        <v>4887</v>
+        <v>5332</v>
       </c>
       <c r="K30" t="n">
-        <v>198</v>
+        <v>340</v>
       </c>
       <c r="L30" t="n">
-        <v>50</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31">
@@ -5043,37 +5043,37 @@
         <v>45078</v>
       </c>
       <c r="B31" t="n">
-        <v>4335</v>
+        <v>6257</v>
       </c>
       <c r="C31" t="n">
-        <v>8459</v>
+        <v>8908</v>
       </c>
       <c r="D31" t="n">
-        <v>-4124</v>
+        <v>-2651</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.222242028435454</v>
+        <v>-0.103493988939439</v>
       </c>
       <c r="F31" t="n">
-        <v>6410</v>
+        <v>7174</v>
       </c>
       <c r="G31" t="n">
-        <v>1810</v>
+        <v>2837</v>
       </c>
       <c r="H31" t="n">
-        <v>1134</v>
+        <v>1752</v>
       </c>
       <c r="I31" t="n">
-        <v>364</v>
+        <v>591</v>
       </c>
       <c r="J31" t="n">
-        <v>6993</v>
+        <v>8110</v>
       </c>
       <c r="K31" t="n">
-        <v>346</v>
+        <v>1104</v>
       </c>
       <c r="L31" t="n">
-        <v>44</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32">
@@ -5081,37 +5081,37 @@
         <v>45108</v>
       </c>
       <c r="B32" t="n">
-        <v>3546</v>
+        <v>4906</v>
       </c>
       <c r="C32" t="n">
-        <v>7043</v>
+        <v>7123</v>
       </c>
       <c r="D32" t="n">
-        <v>-3497</v>
+        <v>-2217</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.232715212942695</v>
+        <v>-0.105882567841702</v>
       </c>
       <c r="F32" t="n">
-        <v>4881</v>
+        <v>5622</v>
       </c>
       <c r="G32" t="n">
-        <v>1512</v>
+        <v>2255</v>
       </c>
       <c r="H32" t="n">
-        <v>949</v>
+        <v>1454</v>
       </c>
       <c r="I32" t="n">
-        <v>160</v>
+        <v>410</v>
       </c>
       <c r="J32" t="n">
-        <v>6108</v>
+        <v>6461</v>
       </c>
       <c r="K32" t="n">
-        <v>243</v>
+        <v>408</v>
       </c>
       <c r="L32" t="n">
-        <v>39</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33">
@@ -5119,37 +5119,37 @@
         <v>45139</v>
       </c>
       <c r="B33" t="n">
-        <v>1926</v>
+        <v>2939</v>
       </c>
       <c r="C33" t="n">
-        <v>5465</v>
+        <v>5671</v>
       </c>
       <c r="D33" t="n">
-        <v>-3539</v>
+        <v>-2732</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.320072667086253</v>
+        <v>-0.211356418226452</v>
       </c>
       <c r="F33" t="n">
-        <v>4288</v>
+        <v>4841</v>
       </c>
       <c r="G33" t="n">
-        <v>913</v>
+        <v>1400</v>
       </c>
       <c r="H33" t="n">
-        <v>609</v>
+        <v>948</v>
       </c>
       <c r="I33" t="n">
-        <v>133</v>
+        <v>388</v>
       </c>
       <c r="J33" t="n">
-        <v>4021</v>
+        <v>4397</v>
       </c>
       <c r="K33" t="n">
-        <v>104</v>
+        <v>256</v>
       </c>
       <c r="L33" t="n">
-        <v>20</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
@@ -5157,37 +5157,37 @@
         <v>45170</v>
       </c>
       <c r="B34" t="n">
-        <v>2469</v>
+        <v>3723</v>
       </c>
       <c r="C34" t="n">
-        <v>6725</v>
+        <v>6677</v>
       </c>
       <c r="D34" t="n">
-        <v>-4256</v>
+        <v>-2954</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.31382242815554</v>
+        <v>-0.195366318657626</v>
       </c>
       <c r="F34" t="n">
-        <v>4301</v>
+        <v>4996</v>
       </c>
       <c r="G34" t="n">
-        <v>1170</v>
+        <v>1774</v>
       </c>
       <c r="H34" t="n">
-        <v>728</v>
+        <v>1197</v>
       </c>
       <c r="I34" t="n">
-        <v>221</v>
+        <v>451</v>
       </c>
       <c r="J34" t="n">
-        <v>5007</v>
+        <v>5558</v>
       </c>
       <c r="K34" t="n">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="L34" t="n">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
@@ -5195,37 +5195,37 @@
         <v>45200</v>
       </c>
       <c r="B35" t="n">
-        <v>3266</v>
+        <v>4520</v>
       </c>
       <c r="C35" t="n">
-        <v>13553</v>
+        <v>14375</v>
       </c>
       <c r="D35" t="n">
-        <v>-10287</v>
+        <v>-9855</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.496674798501133</v>
+        <v>-0.418538589339114</v>
       </c>
       <c r="F35" t="n">
-        <v>7548</v>
+        <v>8559</v>
       </c>
       <c r="G35" t="n">
-        <v>2171</v>
+        <v>3078</v>
       </c>
       <c r="H35" t="n">
-        <v>1287</v>
+        <v>2106</v>
       </c>
       <c r="I35" t="n">
-        <v>173</v>
+        <v>719</v>
       </c>
       <c r="J35" t="n">
-        <v>6820</v>
+        <v>8240</v>
       </c>
       <c r="K35" t="n">
-        <v>967</v>
+        <v>1341</v>
       </c>
       <c r="L35" t="n">
-        <v>54</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36">
@@ -5233,37 +5233,37 @@
         <v>45231</v>
       </c>
       <c r="B36" t="n">
-        <v>2684</v>
+        <v>3835</v>
       </c>
       <c r="C36" t="n">
-        <v>7466</v>
+        <v>7218</v>
       </c>
       <c r="D36" t="n">
-        <v>-4782</v>
+        <v>-3383</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.377128189182061</v>
+        <v>-0.24610966786051</v>
       </c>
       <c r="F36" t="n">
-        <v>4397</v>
+        <v>4987</v>
       </c>
       <c r="G36" t="n">
-        <v>1159</v>
+        <v>1817</v>
       </c>
       <c r="H36" t="n">
-        <v>776</v>
+        <v>1022</v>
       </c>
       <c r="I36" t="n">
-        <v>157</v>
+        <v>385</v>
       </c>
       <c r="J36" t="n">
-        <v>4031</v>
+        <v>5049</v>
       </c>
       <c r="K36" t="n">
-        <v>254</v>
+        <v>394</v>
       </c>
       <c r="L36" t="n">
-        <v>19</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
@@ -5271,37 +5271,37 @@
         <v>45261</v>
       </c>
       <c r="B37" t="n">
-        <v>2201</v>
+        <v>3173</v>
       </c>
       <c r="C37" t="n">
-        <v>5950</v>
+        <v>5599</v>
       </c>
       <c r="D37" t="n">
-        <v>-3749</v>
+        <v>-2426</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.315493509025723</v>
+        <v>-0.151920812537508</v>
       </c>
       <c r="F37" t="n">
-        <v>4020</v>
+        <v>4687</v>
       </c>
       <c r="G37" t="n">
-        <v>1323</v>
+        <v>1979</v>
       </c>
       <c r="H37" t="n">
-        <v>656</v>
+        <v>978</v>
       </c>
       <c r="I37" t="n">
-        <v>170</v>
+        <v>449</v>
       </c>
       <c r="J37" t="n">
-        <v>4188</v>
+        <v>5125</v>
       </c>
       <c r="K37" t="n">
-        <v>189</v>
+        <v>289</v>
       </c>
       <c r="L37" t="n">
-        <v>73</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38">
@@ -5309,37 +5309,37 @@
         <v>45292</v>
       </c>
       <c r="B38" t="n">
-        <v>433</v>
+        <v>596</v>
       </c>
       <c r="C38" t="n">
-        <v>1847</v>
+        <v>1798</v>
       </c>
       <c r="D38" t="n">
-        <v>-1414</v>
+        <v>-1202</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.423457692502919</v>
+        <v>-0.336665991741369</v>
       </c>
       <c r="F38" t="n">
-        <v>1223</v>
+        <v>1371</v>
       </c>
       <c r="G38" t="n">
-        <v>347</v>
+        <v>438</v>
       </c>
       <c r="H38" t="n">
-        <v>316</v>
+        <v>388</v>
       </c>
       <c r="I38" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J38" t="n">
-        <v>770</v>
+        <v>977</v>
       </c>
       <c r="K38" t="n">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="L38" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
